--- a/小程序待修改汇总.xlsx
+++ b/小程序待修改汇总.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\fuying\fuying\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6435783C-85EF-4DF1-A829-9B25AD011014}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F16724-28F7-4D20-B059-C67F0E34D1C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4380" yWindow="735" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{0B7AD733-724D-4989-839B-DA4EC1A2FDB5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0B7AD733-724D-4989-839B-DA4EC1A2FDB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="125">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -461,6 +462,71 @@
   <si>
     <t>*openID
 （这里需要特殊说明，web端采用id主键，默认openID为newuser，这里提交的是openID，后台通过查询phone-openID关联找到phone）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://phenomics.fudan.edu.cn/firmiana/healthprogram/getCartweb</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>*openID
+(需要提供openID的查询接口)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>下单</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>order</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>items</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_list/detail_id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_list/num</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_phone</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_address</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tot_num</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -556,7 +622,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -569,15 +635,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
@@ -587,7 +644,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1032,10 +1107,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF4C338-EC87-4320-819C-1F14D708B25E}">
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
@@ -1110,13 +1185,13 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="30" customHeight="1">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1125,24 +1200,24 @@
       <c r="I2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="7"/>
+      <c r="Q2" s="4"/>
       <c r="R2" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="30" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="9" t="s">
         <v>32</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -1163,22 +1238,22 @@
       <c r="O3" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P3" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="Q3" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="R3" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="30" customHeight="1">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="I4" s="4"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="I4" s="9"/>
       <c r="J4" s="1" t="s">
         <v>34</v>
       </c>
@@ -1197,44 +1272,44 @@
       <c r="O4" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="4"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="9"/>
     </row>
     <row r="5" spans="1:18" ht="30" customHeight="1">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="9" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="L5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="6">
         <v>9000</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="N5" s="6" t="s">
         <v>87</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="4"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="9"/>
     </row>
     <row r="6" spans="1:18" ht="30" customHeight="1">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="I6" s="4"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="I6" s="9"/>
       <c r="J6" s="1" t="s">
         <v>36</v>
       </c>
@@ -1250,16 +1325,16 @@
       <c r="N6" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="4"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="9"/>
     </row>
     <row r="7" spans="1:18" ht="30" customHeight="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="I7" s="4"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="I7" s="9"/>
       <c r="J7" s="1" t="s">
         <v>37</v>
       </c>
@@ -1275,15 +1350,15 @@
       <c r="N7" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="4"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="9"/>
     </row>
     <row r="8" spans="1:18" ht="30" customHeight="1">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
       <c r="I8" s="1" t="s">
         <v>36</v>
       </c>
@@ -1305,18 +1380,18 @@
       <c r="O8" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="4"/>
-    </row>
-    <row r="9" spans="1:18" ht="30" customHeight="1">
-      <c r="A9" s="4" t="s">
+      <c r="P8" s="12"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="9"/>
+    </row>
+    <row r="9" spans="1:18" ht="45.75" customHeight="1">
+      <c r="A9" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="9" t="s">
         <v>56</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -1328,26 +1403,32 @@
       <c r="G9" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="H9" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="I9" s="1" t="s">
         <v>69</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="Q9" s="5" t="s">
+        <v>109</v>
+      </c>
       <c r="R9" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="30" customHeight="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4" t="s">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4" t="s">
+      <c r="C10" s="9"/>
+      <c r="D10" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="9" t="s">
         <v>99</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -1365,22 +1446,22 @@
       <c r="O10" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="P10" s="4" t="s">
+      <c r="P10" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="Q10" s="6" t="s">
+      <c r="Q10" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="R10" s="4" t="s">
+      <c r="R10" s="9" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="30" customHeight="1">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
       <c r="F11" s="1" t="s">
         <v>64</v>
       </c>
@@ -1390,16 +1471,16 @@
       <c r="H11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="4"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="9"/>
     </row>
     <row r="12" spans="1:18" ht="30" customHeight="1">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
       <c r="F12" s="1" t="s">
         <v>65</v>
       </c>
@@ -1409,16 +1490,16 @@
       <c r="H12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="4"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="9"/>
     </row>
     <row r="13" spans="1:18" ht="30" customHeight="1">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
       <c r="F13" s="1" t="s">
         <v>66</v>
       </c>
@@ -1428,16 +1509,16 @@
       <c r="H13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="4"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="9"/>
     </row>
     <row r="14" spans="1:18" ht="30" customHeight="1">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
       <c r="F14" s="1" t="s">
         <v>67</v>
       </c>
@@ -1447,16 +1528,16 @@
       <c r="H14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="4"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="9"/>
     </row>
     <row r="15" spans="1:18" ht="101.25" customHeight="1">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
       <c r="F15" s="1" t="s">
         <v>70</v>
       </c>
@@ -1466,20 +1547,119 @@
       <c r="H15" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="4"/>
-    </row>
-    <row r="16" spans="1:18" ht="30" customHeight="1">
-      <c r="A16" s="1" t="s">
+      <c r="P15" s="9"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="9"/>
+    </row>
+    <row r="16" spans="1:18" s="7" customFormat="1" ht="43.5" customHeight="1">
+      <c r="A16" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q16" s="8"/>
+    </row>
+    <row r="17" spans="1:18" s="7" customFormat="1" ht="43.5" customHeight="1">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="F17" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q17" s="8"/>
+    </row>
+    <row r="18" spans="1:18" s="7" customFormat="1" ht="43.5" customHeight="1">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q18" s="8"/>
+    </row>
+    <row r="19" spans="1:18" s="7" customFormat="1" ht="43.5" customHeight="1">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="F19" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q19" s="8"/>
+    </row>
+    <row r="20" spans="1:18" s="7" customFormat="1" ht="43.5" customHeight="1">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q20" s="8"/>
+    </row>
+    <row r="21" spans="1:18" s="13" customFormat="1" ht="43.5" customHeight="1">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q21" s="8"/>
+    </row>
+    <row r="22" spans="1:18" s="7" customFormat="1" ht="43.5" customHeight="1">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="F22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q22" s="8"/>
+    </row>
+    <row r="23" spans="1:18" ht="30" customHeight="1">
+      <c r="A23" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="R16" s="1" t="s">
+      <c r="R23" s="1" t="s">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="22">
+    <mergeCell ref="B16:B22"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="D16:D22"/>
+    <mergeCell ref="C16:C22"/>
     <mergeCell ref="B10:B15"/>
     <mergeCell ref="A9:A15"/>
     <mergeCell ref="C9:C15"/>
@@ -1501,8 +1681,9 @@
   <hyperlinks>
     <hyperlink ref="P3" r:id="rId1" xr:uid="{4A51E98B-09D8-4ED6-B574-2DFBC7570DEF}"/>
     <hyperlink ref="Q10" r:id="rId2" xr:uid="{1DEFDADF-CDBC-47DC-A3FA-AD0CEFEB3F44}"/>
+    <hyperlink ref="Q9" r:id="rId3" xr:uid="{27D79918-2910-4600-96BE-FCB94C448D93}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/小程序待修改汇总.xlsx
+++ b/小程序待修改汇总.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\fuying\fuying\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F16724-28F7-4D20-B059-C67F0E34D1C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610E9092-BD91-4C3D-9D77-8B30208973CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0B7AD733-724D-4989-839B-DA4EC1A2FDB5}"/>
+    <workbookView xWindow="-6945" yWindow="1530" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{0B7AD733-724D-4989-839B-DA4EC1A2FDB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="194">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -528,6 +528,282 @@
   <si>
     <t>/</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://phenomics.fudan.edu.cn/firmiana/healthprogram/getCartweb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://phenomics.fudan.edu.cn/firmiana/healthprogram/getitems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dingdanDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noticeDingdan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://phenomics.fudan.edu.cn/firmiana/weprogram/msg/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://phenomics.fudan.edu.cn/firmiana/healthprogram/getproductsdetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://phenomics.fudan.edu.cn/firmiana/healthprogram/updateCartWeb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://phenomics.fudan.edu.cn/firmiana/weprogram/language?language=Chinese</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://phenomics.fudan.edu.cn/firmiana/weprogram/msgread</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://phenomics.fudan.edu.cn/firmiana/healthprogram/payCart/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>personalInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://phenomics.fudan.edu.cn/firmiana/healthprogram/bindingInfo/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://phenomics.fudan.edu.cn/firmiana/healthprogram/getProducts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://phenomics.fudan.edu.cn/firmiana/weprogram/language?language=English</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://phenomics.fudan.edu.cn/firmiana/weprogram/msgnum/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>register</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://phenomics.fudan.edu.cn/firmiana/healthprogram/sendValidateCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://phenomics.fudan.edu.cn/firmiana/healthprogram/register/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://phenomics.fudan.edu.cn/firmiana/weprogram/tic_ms1/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://phenomics.fudan.edu.cn/firmiana/weprogram/experiment/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expnumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://phenomics.fudan.edu.cn/firmiana/weprogram/project</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>basicInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://phenomics.fudan.edu.cn/firmiana/experiments/ajax/Source_TissueTaxonName/?id=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://phenomics.fudan.edu.cn/firmiana/experiments/ajax/Source_TissueSystem/?id=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://phenomics.fudan.edu.cn/firmiana/experiments/ajax/Source_TissueTaxonID/?id=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://phenomics.fudan.edu.cn/firmiana/experiments/ajax/Source_TissueTaxonStrain/?id=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://phenomics.fudan.edu.cn/firmiana/experiments/ajax/Source_TissueOrgan/?id=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://phenomics.fudan.edu.cn/firmiana/experiments/ajax/display2/Cell_Name/?id=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>canvas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://phenomics.fudan.edu.cn/firmiana/weprogram/signimage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://phenomics.fudan.edu.cn/firmiana/experiments/ajax/unit_detail/?id=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://phenomics.fudan.edu.cn/firmiana/experiments/ajax/treatment_detail/?id=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://phenomics.fudan.edu.cn/firmiana/experiments/ajax/display/Genotype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://phenomics.fudan.edu.cn/firmiana/experiments/ajax/display/Fluid_name/?_dc=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://phenomics.fudan.edu.cn/firmiana/weprogram/getgenesymbol?symbol=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://phenomics.fudan.edu.cn/firmiana/weprogram/getgeneid?symbol=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://phenomics.fudan.edu.cn/firmiana/weprogram/projectsubmit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>experimentdetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>experiment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://phenomics.fudan.edu.cn/firmiana/weprogram/staffproject/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面/组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>instrumentDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://phenomics.fudan.edu.cn/firmiana/weprogram/instrumentstatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>instrument</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://phenomics.fudan.edu.cn/firmiana/weprogram/instrument/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>searchPro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msgDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://phenomics.fudan.edu.cn/firmiana/weprogram/getcontact/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://phenomics.fudan.edu.cn/firmiana/weprogram/sendmsg/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>binding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://phenomics.fudan.edu.cn/firmiana/weprogram/updateexpress/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://phenomics.fudan.edu.cn/firmiana/weprogram/getconditioninformation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://phenomics.fudan.edu.cn/firmiana/experiments/ajax/display/Dynamic_Modification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://phenomics.fudan.edu.cn/firmiana/experiments/ajax/display/Fixed_Modification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://phenomics.fudan.edu.cn/firmiana/weprogram/updatemsinstrument</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -622,7 +898,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -650,6 +926,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -662,8 +941,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1109,7 +1391,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF4C338-EC87-4320-819C-1F14D708B25E}">
   <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -1185,13 +1467,13 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="30" customHeight="1">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1209,15 +1491,15 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="30" customHeight="1">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="10" t="s">
         <v>32</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -1238,22 +1520,22 @@
       <c r="O3" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="P3" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="Q3" s="10" t="s">
+      <c r="Q3" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="R3" s="10" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="30" customHeight="1">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="I4" s="9"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="I4" s="10"/>
       <c r="J4" s="1" t="s">
         <v>34</v>
       </c>
@@ -1272,16 +1554,16 @@
       <c r="O4" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="9"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="10"/>
     </row>
     <row r="5" spans="1:18" ht="30" customHeight="1">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="I5" s="9"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="I5" s="10"/>
       <c r="J5" s="6" t="s">
         <v>35</v>
       </c>
@@ -1300,16 +1582,16 @@
       <c r="O5" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="9"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="10"/>
     </row>
     <row r="6" spans="1:18" ht="30" customHeight="1">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="I6" s="9"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="I6" s="10"/>
       <c r="J6" s="1" t="s">
         <v>36</v>
       </c>
@@ -1325,16 +1607,16 @@
       <c r="N6" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="9"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="10"/>
     </row>
     <row r="7" spans="1:18" ht="30" customHeight="1">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="I7" s="9"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="I7" s="10"/>
       <c r="J7" s="1" t="s">
         <v>37</v>
       </c>
@@ -1350,15 +1632,15 @@
       <c r="N7" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="9"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="10"/>
     </row>
     <row r="8" spans="1:18" ht="30" customHeight="1">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
       <c r="I8" s="1" t="s">
         <v>36</v>
       </c>
@@ -1380,18 +1662,18 @@
       <c r="O8" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="9"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="10"/>
     </row>
     <row r="9" spans="1:18" ht="45.75" customHeight="1">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="10" t="s">
         <v>54</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="10" t="s">
         <v>56</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -1420,15 +1702,15 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="30" customHeight="1">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9" t="s">
+      <c r="C10" s="10"/>
+      <c r="D10" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="10" t="s">
         <v>99</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -1446,22 +1728,22 @@
       <c r="O10" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="P10" s="9" t="s">
+      <c r="P10" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="Q10" s="10" t="s">
+      <c r="Q10" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="R10" s="9" t="s">
+      <c r="R10" s="10" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="30" customHeight="1">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
       <c r="F11" s="1" t="s">
         <v>64</v>
       </c>
@@ -1471,16 +1753,16 @@
       <c r="H11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="9"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="10"/>
     </row>
     <row r="12" spans="1:18" ht="30" customHeight="1">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
       <c r="F12" s="1" t="s">
         <v>65</v>
       </c>
@@ -1490,16 +1772,16 @@
       <c r="H12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="9"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="10"/>
     </row>
     <row r="13" spans="1:18" ht="30" customHeight="1">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
       <c r="F13" s="1" t="s">
         <v>66</v>
       </c>
@@ -1509,16 +1791,16 @@
       <c r="H13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="9"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="10"/>
     </row>
     <row r="14" spans="1:18" ht="30" customHeight="1">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
       <c r="F14" s="1" t="s">
         <v>67</v>
       </c>
@@ -1528,16 +1810,16 @@
       <c r="H14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="9"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="10"/>
     </row>
     <row r="15" spans="1:18" ht="101.25" customHeight="1">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
       <c r="F15" s="1" t="s">
         <v>70</v>
       </c>
@@ -1547,21 +1829,21 @@
       <c r="H15" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="9"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="10"/>
     </row>
     <row r="16" spans="1:18" s="7" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="10" t="s">
         <v>113</v>
       </c>
       <c r="F16" s="7" t="s">
@@ -1573,11 +1855,11 @@
       <c r="Q16" s="8"/>
     </row>
     <row r="17" spans="1:18" s="7" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="F17" s="9" t="s">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="F17" s="10" t="s">
         <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
@@ -1586,22 +1868,22 @@
       <c r="Q17" s="8"/>
     </row>
     <row r="18" spans="1:18" s="7" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="F18" s="9"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="F18" s="10"/>
       <c r="G18" s="7" t="s">
         <v>118</v>
       </c>
       <c r="Q18" s="8"/>
     </row>
     <row r="19" spans="1:18" s="7" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="F19" s="9" t="s">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="F19" s="10" t="s">
         <v>119</v>
       </c>
       <c r="G19" s="7" t="s">
@@ -1610,32 +1892,32 @@
       <c r="Q19" s="8"/>
     </row>
     <row r="20" spans="1:18" s="7" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="F20" s="9"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="F20" s="10"/>
       <c r="G20" s="7" t="s">
         <v>121</v>
       </c>
       <c r="Q20" s="8"/>
     </row>
-    <row r="21" spans="1:18" s="13" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="13" t="s">
+    <row r="21" spans="1:18" s="9" customFormat="1" ht="43.5" customHeight="1">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="9" t="s">
         <v>122</v>
       </c>
       <c r="Q21" s="8"/>
     </row>
     <row r="22" spans="1:18" s="7" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
       <c r="F22" s="7" t="s">
         <v>124</v>
       </c>
@@ -1654,12 +1936,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B16:B22"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="D16:D22"/>
-    <mergeCell ref="C16:C22"/>
     <mergeCell ref="B10:B15"/>
     <mergeCell ref="A9:A15"/>
     <mergeCell ref="C9:C15"/>
@@ -1676,6 +1952,12 @@
     <mergeCell ref="C2:C8"/>
     <mergeCell ref="B3:B8"/>
     <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B16:B22"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="D16:D22"/>
+    <mergeCell ref="C16:C22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -1686,4 +1968,437 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C924A4FC-CF6C-44BD-92C6-4E3731DFEA8D}">
+  <dimension ref="A1:B54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:A54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="15" style="14" customWidth="1"/>
+    <col min="2" max="2" width="65.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="15"/>
+      <c r="B3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="15"/>
+      <c r="B5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="15"/>
+      <c r="B7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="15"/>
+      <c r="B10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="B13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="15"/>
+      <c r="B14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="15"/>
+      <c r="B16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="15"/>
+      <c r="B17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="B18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="15"/>
+      <c r="B19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="B20" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="B21" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B22" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B23" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="15"/>
+      <c r="B24" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="B25" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="15"/>
+      <c r="B26" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="15"/>
+      <c r="B27" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="15"/>
+      <c r="B28" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="15"/>
+      <c r="B29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="15"/>
+      <c r="B30" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B31" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="B32" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="15"/>
+      <c r="B33" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="15"/>
+      <c r="B34" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="15"/>
+      <c r="B35" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="15"/>
+      <c r="B36" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="15"/>
+      <c r="B37" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B38" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="B39" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="B40" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B41" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B42" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="B43" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="B44" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="B45" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="15"/>
+      <c r="B46" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="B47" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="15"/>
+      <c r="B48" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="B50" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B51" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="15"/>
+      <c r="B52" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="15"/>
+      <c r="B53" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="15"/>
+      <c r="B54" t="s">
+        <v>193</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A30"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A17"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{FA3AACCD-1E4B-49FB-9FE4-FED08157CAF4}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{F4B03546-8805-4B28-B43F-BB6706E8440D}"/>
+    <hyperlink ref="B9" r:id="rId3" xr:uid="{215A37C9-3603-4E2D-9EC6-8D7EF17FEC4B}"/>
+    <hyperlink ref="B13" r:id="rId4" xr:uid="{EADCAFFF-AAB9-486A-BF87-CA0D4B878A5F}"/>
+    <hyperlink ref="B16" r:id="rId5" xr:uid="{C1690D22-7972-4C58-9DDB-5CD2A0BE86E7}"/>
+    <hyperlink ref="B19" r:id="rId6" xr:uid="{D20F2845-04BB-44CC-B803-87213C2CB50D}"/>
+    <hyperlink ref="B12" r:id="rId7" xr:uid="{C274C975-B0FF-420D-B11F-32178221ACA8}"/>
+    <hyperlink ref="B32" r:id="rId8" xr:uid="{5D5509A8-FA15-47D8-AF24-7C92408FA57C}"/>
+    <hyperlink ref="B38" r:id="rId9" xr:uid="{BA33E563-2998-4686-88CF-67E3E5F46FE7}"/>
+    <hyperlink ref="B52" r:id="rId10" xr:uid="{75193707-CD33-4858-AE50-9160048D6F21}"/>
+    <hyperlink ref="B53" r:id="rId11" xr:uid="{DC9D439C-BE1A-4312-B015-67950FEAB271}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
+</worksheet>
 </file>
--- a/小程序待修改汇总.xlsx
+++ b/小程序待修改汇总.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\fuying\fuying\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610E9092-BD91-4C3D-9D77-8B30208973CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08D23DC-2953-4CB3-A77B-8801C9089638}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6945" yWindow="1530" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{0B7AD733-724D-4989-839B-DA4EC1A2FDB5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{0B7AD733-724D-4989-839B-DA4EC1A2FDB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -810,7 +810,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -869,13 +869,26 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -887,7 +900,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -897,8 +910,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -930,6 +946,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
@@ -944,14 +963,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="3">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
     <cellStyle name="解释性文本" xfId="1" builtinId="53"/>
+    <cellStyle name="适中" xfId="3" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1467,13 +1487,13 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="30" customHeight="1">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1491,15 +1511,15 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="30" customHeight="1">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="11" t="s">
         <v>32</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -1520,22 +1540,22 @@
       <c r="O3" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="Q3" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="R3" s="11" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="30" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="I4" s="10"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="I4" s="11"/>
       <c r="J4" s="1" t="s">
         <v>34</v>
       </c>
@@ -1554,16 +1574,16 @@
       <c r="O4" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="10"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="11"/>
     </row>
     <row r="5" spans="1:18" ht="30" customHeight="1">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="I5" s="10"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="I5" s="11"/>
       <c r="J5" s="6" t="s">
         <v>35</v>
       </c>
@@ -1582,16 +1602,16 @@
       <c r="O5" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="10"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="11"/>
     </row>
     <row r="6" spans="1:18" ht="30" customHeight="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="I6" s="10"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="I6" s="11"/>
       <c r="J6" s="1" t="s">
         <v>36</v>
       </c>
@@ -1607,16 +1627,16 @@
       <c r="N6" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="10"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="11"/>
     </row>
     <row r="7" spans="1:18" ht="30" customHeight="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="I7" s="10"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="I7" s="11"/>
       <c r="J7" s="1" t="s">
         <v>37</v>
       </c>
@@ -1632,15 +1652,15 @@
       <c r="N7" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="10"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="11"/>
     </row>
     <row r="8" spans="1:18" ht="30" customHeight="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
       <c r="I8" s="1" t="s">
         <v>36</v>
       </c>
@@ -1662,18 +1682,18 @@
       <c r="O8" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="10"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="11"/>
     </row>
     <row r="9" spans="1:18" ht="45.75" customHeight="1">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="11" t="s">
         <v>54</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="11" t="s">
         <v>56</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -1702,15 +1722,15 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="30" customHeight="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10" t="s">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10" t="s">
+      <c r="C10" s="11"/>
+      <c r="D10" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="11" t="s">
         <v>99</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -1728,22 +1748,22 @@
       <c r="O10" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="P10" s="10" t="s">
+      <c r="P10" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="Q10" s="11" t="s">
+      <c r="Q10" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="R10" s="10" t="s">
+      <c r="R10" s="11" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="30" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
       <c r="F11" s="1" t="s">
         <v>64</v>
       </c>
@@ -1753,16 +1773,16 @@
       <c r="H11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="10"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="11"/>
     </row>
     <row r="12" spans="1:18" ht="30" customHeight="1">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
       <c r="F12" s="1" t="s">
         <v>65</v>
       </c>
@@ -1772,16 +1792,16 @@
       <c r="H12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="10"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="11"/>
     </row>
     <row r="13" spans="1:18" ht="30" customHeight="1">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
       <c r="F13" s="1" t="s">
         <v>66</v>
       </c>
@@ -1791,16 +1811,16 @@
       <c r="H13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="10"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="11"/>
     </row>
     <row r="14" spans="1:18" ht="30" customHeight="1">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
       <c r="F14" s="1" t="s">
         <v>67</v>
       </c>
@@ -1810,16 +1830,16 @@
       <c r="H14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="10"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="11"/>
     </row>
     <row r="15" spans="1:18" ht="101.25" customHeight="1">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
       <c r="F15" s="1" t="s">
         <v>70</v>
       </c>
@@ -1829,21 +1849,21 @@
       <c r="H15" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="10"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="11"/>
     </row>
     <row r="16" spans="1:18" s="7" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="11" t="s">
         <v>113</v>
       </c>
       <c r="F16" s="7" t="s">
@@ -1855,11 +1875,11 @@
       <c r="Q16" s="8"/>
     </row>
     <row r="17" spans="1:18" s="7" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="F17" s="10" t="s">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="F17" s="11" t="s">
         <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
@@ -1868,22 +1888,22 @@
       <c r="Q17" s="8"/>
     </row>
     <row r="18" spans="1:18" s="7" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="F18" s="10"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="F18" s="11"/>
       <c r="G18" s="7" t="s">
         <v>118</v>
       </c>
       <c r="Q18" s="8"/>
     </row>
     <row r="19" spans="1:18" s="7" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="F19" s="10" t="s">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="F19" s="11" t="s">
         <v>119</v>
       </c>
       <c r="G19" s="7" t="s">
@@ -1892,32 +1912,32 @@
       <c r="Q19" s="8"/>
     </row>
     <row r="20" spans="1:18" s="7" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="F20" s="10"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="F20" s="11"/>
       <c r="G20" s="7" t="s">
         <v>121</v>
       </c>
       <c r="Q20" s="8"/>
     </row>
     <row r="21" spans="1:18" s="9" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="F21" s="10"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="F21" s="11"/>
       <c r="G21" s="9" t="s">
         <v>122</v>
       </c>
       <c r="Q21" s="8"/>
     </row>
     <row r="22" spans="1:18" s="7" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
       <c r="F22" s="7" t="s">
         <v>124</v>
       </c>
@@ -1936,6 +1956,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B16:B22"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="D16:D22"/>
+    <mergeCell ref="C16:C22"/>
     <mergeCell ref="B10:B15"/>
     <mergeCell ref="A9:A15"/>
     <mergeCell ref="C9:C15"/>
@@ -1952,12 +1978,6 @@
     <mergeCell ref="C2:C8"/>
     <mergeCell ref="B3:B8"/>
     <mergeCell ref="A2:A8"/>
-    <mergeCell ref="B16:B22"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="D16:D22"/>
-    <mergeCell ref="C16:C22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -1974,18 +1994,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C924A4FC-CF6C-44BD-92C6-4E3731DFEA8D}">
   <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:A54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="15" style="14" customWidth="1"/>
+    <col min="1" max="1" width="15" style="10" customWidth="1"/>
     <col min="2" max="2" width="65.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="10" t="s">
         <v>177</v>
       </c>
       <c r="B1" t="s">
@@ -1996,13 +2016,13 @@
       <c r="A2" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="16" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="15"/>
-      <c r="B3" t="s">
+      <c r="B3" s="16" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2010,13 +2030,13 @@
       <c r="A4" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="16" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="15"/>
-      <c r="B5" t="s">
+      <c r="B5" s="16" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2030,12 +2050,12 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="15"/>
-      <c r="B7" t="s">
+      <c r="B7" s="16" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="10" t="s">
         <v>131</v>
       </c>
       <c r="B8" t="s">
@@ -2057,18 +2077,18 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="16" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="16" t="s">
         <v>141</v>
       </c>
     </row>
@@ -2082,7 +2102,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="15"/>
-      <c r="B14" t="s">
+      <c r="B14" s="16" t="s">
         <v>143</v>
       </c>
     </row>
@@ -2110,7 +2130,7 @@
       <c r="A18" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="16" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2121,7 +2141,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="10" t="s">
         <v>150</v>
       </c>
       <c r="B20" t="s">
@@ -2129,7 +2149,7 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="10" t="s">
         <v>153</v>
       </c>
       <c r="B21" t="s">
@@ -2137,7 +2157,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="10" t="s">
         <v>134</v>
       </c>
       <c r="B22" t="s">
@@ -2197,7 +2217,7 @@
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="10" t="s">
         <v>163</v>
       </c>
       <c r="B31" t="s">
@@ -2243,7 +2263,7 @@
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="10" t="s">
         <v>172</v>
       </c>
       <c r="B38" t="s">
@@ -2251,7 +2271,7 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="10" t="s">
         <v>174</v>
       </c>
       <c r="B39" t="s">
@@ -2259,7 +2279,7 @@
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="10" t="s">
         <v>175</v>
       </c>
       <c r="B40" t="s">
@@ -2267,7 +2287,7 @@
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="10" t="s">
         <v>144</v>
       </c>
       <c r="B41" t="s">
@@ -2275,7 +2295,7 @@
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="10" t="s">
         <v>178</v>
       </c>
       <c r="B42" t="s">
@@ -2283,7 +2303,7 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="10" t="s">
         <v>180</v>
       </c>
       <c r="B43" t="s">
@@ -2291,7 +2311,7 @@
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="10" t="s">
         <v>182</v>
       </c>
       <c r="B44" t="s">
@@ -2327,7 +2347,7 @@
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="10" t="s">
         <v>182</v>
       </c>
       <c r="B49" t="s">
@@ -2335,7 +2355,7 @@
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="14" t="s">
+      <c r="A50" s="10" t="s">
         <v>187</v>
       </c>
       <c r="B50" t="s">
@@ -2370,6 +2390,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A51:A54"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A23:A24"/>
@@ -2377,12 +2403,6 @@
     <mergeCell ref="A32:A37"/>
     <mergeCell ref="A45:A46"/>
     <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
